--- a/rawdata/Iva_plant_sample.xlsx
+++ b/rawdata/Iva_plant_sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -261,208 +261,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -775,10 +574,10 @@
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="U165" sqref="U165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7788,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="3">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N108" s="3">
         <v>80</v>
@@ -10973,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="M157" s="3">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N157" s="3">
         <v>100</v>

--- a/rawdata/Iva_plant_sample.xlsx
+++ b/rawdata/Iva_plant_sample.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="plant" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="51">
   <si>
     <t>Type</t>
   </si>
@@ -177,6 +178,22 @@
     <t>Depth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>note:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bug sample of replicates 2 and 3 was mixed, so inlcude only fake HWD data to create the total volumn of the sample</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toughness1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -212,12 +229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -242,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -256,6 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -574,10 +598,10 @@
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U165" sqref="U165"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2118,22 +2142,22 @@
         <v>0.42708333333333298</v>
       </c>
       <c r="J24" s="3">
-        <v>999</v>
+        <v>30.5</v>
       </c>
       <c r="K24" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
       </c>
       <c r="M24" s="3">
-        <v>999</v>
+        <v>110</v>
       </c>
       <c r="N24" s="3">
-        <v>999</v>
+        <v>162</v>
       </c>
       <c r="O24" s="3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2142,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="S24" s="3">
-        <v>999</v>
+        <v>175</v>
       </c>
       <c r="T24" s="3">
-        <v>999</v>
+        <v>218</v>
       </c>
       <c r="U24" s="3">
-        <v>999</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -24007,4 +24031,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>256</v>
+      </c>
+      <c r="H5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>180</v>
+      </c>
+      <c r="H6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>F5+F6</f>
+        <v>350</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:H7" si="0">G5+G6</f>
+        <v>436</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>F7/2</f>
+        <v>175</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H8" si="1">G7/2</f>
+        <v>218</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>